--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,771 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_0</t>
+          <t>model_20_8_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9561707731958144</v>
+        <v>0.9828917816057461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7861841999662953</v>
+        <v>0.8045784247429575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8196604612323722</v>
+        <v>0.9902290506274354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9883787980193206</v>
+        <v>0.9277337965892845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8741866730221493</v>
+        <v>0.9696945646421403</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2930862414546214</v>
+        <v>0.1144027351784778</v>
       </c>
       <c r="H2" t="n">
-        <v>1.429787239356614</v>
+        <v>1.306784973577457</v>
       </c>
       <c r="I2" t="n">
-        <v>1.40067938947172</v>
+        <v>0.06831198765531336</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03200711989113766</v>
+        <v>0.4849435626492758</v>
       </c>
       <c r="K2" t="n">
-        <v>0.716343254681429</v>
+        <v>0.2766277751522945</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7539564995283949</v>
+        <v>2.208062730002257</v>
       </c>
       <c r="M2" t="n">
-        <v>0.541374400442634</v>
+        <v>0.3382347338439354</v>
       </c>
       <c r="N2" t="n">
-        <v>1.019847197043405</v>
+        <v>1.007747117763436</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5644218294689798</v>
+        <v>0.3526340867060942</v>
       </c>
       <c r="P2" t="n">
-        <v>156.4545767476777</v>
+        <v>158.3360605828389</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.3080152625292</v>
+        <v>252.1894990976904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_1</t>
+          <t>model_20_8_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9536828416818178</v>
+        <v>0.9838887417510056</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7859769373479841</v>
+        <v>0.8045110535716772</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8003161406371733</v>
+        <v>0.9916858082700892</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9768394482194996</v>
+        <v>0.9381022826548362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8582017131487223</v>
+        <v>0.974063684341004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3097230509445882</v>
+        <v>0.1077360580965486</v>
       </c>
       <c r="H3" t="n">
-        <v>1.431173205439618</v>
+        <v>1.307235484910025</v>
       </c>
       <c r="I3" t="n">
-        <v>1.550924817325128</v>
+        <v>0.05812730586981825</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06378880246774926</v>
+        <v>0.4153656640660149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8073568098964388</v>
+        <v>0.2367464849679166</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7999801235094921</v>
+        <v>2.040323299030695</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5565276731166099</v>
+        <v>0.3282317140322497</v>
       </c>
       <c r="N3" t="n">
-        <v>1.020973807540309</v>
+        <v>1.007295664112752</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5802202083322858</v>
+        <v>0.3422052176319194</v>
       </c>
       <c r="P3" t="n">
-        <v>156.3441535297161</v>
+        <v>158.4561418991707</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.1975920445675</v>
+        <v>252.3095804140222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_2</t>
+          <t>model_20_8_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.950938778673044</v>
+        <v>0.9817620302753407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7848941158077893</v>
+        <v>0.8044179107153842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7822813758754004</v>
+        <v>0.9887018572988232</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9633461263119367</v>
+        <v>0.9176967803108865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8426373550391071</v>
+        <v>0.9654203217834643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3280726129195069</v>
+        <v>0.1219573875269254</v>
       </c>
       <c r="H4" t="n">
-        <v>1.438414038064835</v>
+        <v>1.30785833161894</v>
       </c>
       <c r="I4" t="n">
-        <v>1.690999054336101</v>
+        <v>0.07898910897009209</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1009521159307713</v>
+        <v>0.5522971277003121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8959755851334361</v>
+        <v>0.3156430302870308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8408031975714775</v>
+        <v>2.358341304579908</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5727762328514574</v>
+        <v>0.3492239790262481</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02221640211032</v>
+        <v>1.008258703271544</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5971605028942012</v>
+        <v>0.3640911668066914</v>
       </c>
       <c r="P4" t="n">
-        <v>156.2290406284939</v>
+        <v>158.2081671556569</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.0824791433454</v>
+        <v>252.0616056705083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_3</t>
+          <t>model_20_8_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9481063833616095</v>
+        <v>0.984679417089747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7833000023799976</v>
+        <v>0.8041365153465163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7656815876699071</v>
+        <v>0.9930317706422445</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9489522730196084</v>
+        <v>0.9486458140266186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8278339325498745</v>
+        <v>0.9784547091199746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3470128534090508</v>
+        <v>0.1024488084656589</v>
       </c>
       <c r="H5" t="n">
-        <v>1.449073881896696</v>
+        <v>1.309740023746266</v>
       </c>
       <c r="I5" t="n">
-        <v>1.819927970135258</v>
+        <v>0.04871723101983994</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1405956733518486</v>
+        <v>0.3446131210373268</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9802618217435531</v>
+        <v>0.1966652453849251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8767764531364655</v>
+        <v>1.852890702120747</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5890779688708879</v>
+        <v>0.3200762541421324</v>
       </c>
       <c r="N5" t="n">
-        <v>1.023498996213611</v>
+        <v>1.006937622449926</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6141562375652246</v>
+        <v>0.3337025629301504</v>
       </c>
       <c r="P5" t="n">
-        <v>156.1167869163933</v>
+        <v>158.556784069527</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.9702254312448</v>
+        <v>252.4102225843785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_4</t>
+          <t>model_20_8_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9452962403261194</v>
+        <v>0.9805553798434966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7814344388307821</v>
+        <v>0.8040917138563434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7505328847199374</v>
+        <v>0.9871387832141734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9343871689363589</v>
+        <v>0.9080950207444256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8139787998118043</v>
+        <v>0.9612923099239377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3658042928268923</v>
+        <v>0.1300262645207816</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46154891394043</v>
+        <v>1.310039611517344</v>
       </c>
       <c r="I6" t="n">
-        <v>1.937586450046269</v>
+        <v>0.08991708469727711</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1807108897807957</v>
+        <v>0.6167298953302618</v>
       </c>
       <c r="K6" t="n">
-        <v>1.059148781639143</v>
+        <v>0.3533234900137694</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9083884369223293</v>
+        <v>2.493118993578721</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6048175698728439</v>
+        <v>0.3605915480440183</v>
       </c>
       <c r="N6" t="n">
-        <v>1.024771513814587</v>
+        <v>1.008805111014266</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6305659059672996</v>
+        <v>0.37594267677166</v>
       </c>
       <c r="P6" t="n">
-        <v>156.0113136152924</v>
+        <v>158.0800376283152</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.8647521301438</v>
+        <v>251.9334761431666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_5</t>
+          <t>model_20_8_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9425776187348625</v>
+        <v>0.9793144477808261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7794520487387001</v>
+        <v>0.8036488330943438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7367834999260208</v>
+        <v>0.9855687017775266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9201301061535505</v>
+        <v>0.8989956553635507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8011526450764284</v>
+        <v>0.9573462937245281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.383983727925728</v>
+        <v>0.138324382937826</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47480516561425</v>
+        <v>1.313001157212113</v>
       </c>
       <c r="I7" t="n">
-        <v>2.044376564018835</v>
+        <v>0.1008940511749874</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2199776987170386</v>
+        <v>0.677791338403036</v>
       </c>
       <c r="K7" t="n">
-        <v>1.132177050177057</v>
+        <v>0.3893426947890117</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9361365282418583</v>
+        <v>2.61407914864824</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6196642057806212</v>
+        <v>0.3719198609079999</v>
       </c>
       <c r="N7" t="n">
-        <v>1.026002587742704</v>
+        <v>1.009367042514343</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6460445939024441</v>
+        <v>0.3877532593671018</v>
       </c>
       <c r="P7" t="n">
-        <v>155.9143102049714</v>
+        <v>157.9563075023341</v>
       </c>
       <c r="Q7" t="n">
-        <v>249.7677487198228</v>
+        <v>251.8097460171855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_6</t>
+          <t>model_20_8_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9399915679780131</v>
+        <v>0.9851682457989399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7774510744969038</v>
+        <v>0.8033543626485523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.724346497255151</v>
+        <v>0.9942206386598857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9064788752740895</v>
+        <v>0.9591388800632543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7893680958049164</v>
+        <v>0.9827670380365259</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4012766612444493</v>
+        <v>0.09918000863643739</v>
       </c>
       <c r="H8" t="n">
-        <v>1.488185689582781</v>
+        <v>1.314970282439033</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14097353563657</v>
+        <v>0.0404054555466249</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2575759251437824</v>
+        <v>0.2741992264813869</v>
       </c>
       <c r="K8" t="n">
-        <v>1.199274730390177</v>
+        <v>0.1573023410140059</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9609498705315427</v>
+        <v>1.643155045905498</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6334640173241486</v>
+        <v>0.3149285770399971</v>
       </c>
       <c r="N8" t="n">
-        <v>1.027173629594862</v>
+        <v>1.00671626605331</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6604318919929275</v>
+        <v>0.3283357385566166</v>
       </c>
       <c r="P8" t="n">
-        <v>155.8262083225526</v>
+        <v>158.6216376216855</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.679646837404</v>
+        <v>252.4750761365369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_7</t>
+          <t>model_20_8_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9375602404058333</v>
+        <v>0.9780709034347695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7754925386729046</v>
+        <v>0.8031275433300887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7131191840760196</v>
+        <v>0.9840153952065338</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8936056894816172</v>
+        <v>0.8904355201560572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7785968400639856</v>
+        <v>0.9536049225009391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4175349599148492</v>
+        <v>0.1466399697059011</v>
       </c>
       <c r="H9" t="n">
-        <v>1.501282427656092</v>
+        <v>1.316487024266005</v>
       </c>
       <c r="I9" t="n">
-        <v>2.228174968426174</v>
+        <v>0.1117537389347581</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2930312594306805</v>
+        <v>0.7352342684084874</v>
       </c>
       <c r="K9" t="n">
-        <v>1.260603021913878</v>
+        <v>0.4234939018374791</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9836539897047289</v>
+        <v>2.722714753057082</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6461694513940204</v>
+        <v>0.382935986433635</v>
       </c>
       <c r="N9" t="n">
-        <v>1.028274608118113</v>
+        <v>1.009930156935199</v>
       </c>
       <c r="O9" t="n">
-        <v>0.673678222695028</v>
+        <v>0.3992383641628867</v>
       </c>
       <c r="P9" t="n">
-        <v>155.7467740037478</v>
+        <v>157.8395497640779</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.6002125185993</v>
+        <v>251.6929882789293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_8</t>
+          <t>model_20_8_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.93529316378493</v>
+        <v>0.9768483212379158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7736131326343603</v>
+        <v>0.8025577454873829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7029947302544852</v>
+        <v>0.9824982669343684</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8815941040479943</v>
+        <v>0.8824317675170442</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7687861848340352</v>
+        <v>0.9500818923477458</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4326949117177574</v>
+        <v>0.1548153824857355</v>
       </c>
       <c r="H10" t="n">
-        <v>1.513850024489706</v>
+        <v>1.320297265063857</v>
       </c>
       <c r="I10" t="n">
-        <v>2.306810601490281</v>
+        <v>0.1223604920605795</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3261135736091778</v>
+        <v>0.7889435839133747</v>
       </c>
       <c r="K10" t="n">
-        <v>1.316461942958207</v>
+        <v>0.4556520933158134</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003434827500231</v>
+        <v>2.820332139558368</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6577954938411766</v>
+        <v>0.3934658593648697</v>
       </c>
       <c r="N10" t="n">
-        <v>1.029301208852107</v>
+        <v>1.010483779062076</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6857992098383854</v>
+        <v>0.4102165155846459</v>
       </c>
       <c r="P10" t="n">
-        <v>155.675444782394</v>
+        <v>157.731043905401</v>
       </c>
       <c r="Q10" t="n">
-        <v>249.5288832972454</v>
+        <v>251.5844824202524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_9</t>
+          <t>model_20_8_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9331921014980662</v>
+        <v>0.9852304811674548</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7718338695316382</v>
+        <v>0.8020363876556622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6938699946959807</v>
+        <v>0.9951993719765694</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8704717992085844</v>
+        <v>0.9692616281846838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7598724487367456</v>
+        <v>0.9868627647994682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4467447249045178</v>
+        <v>0.09876384044061026</v>
       </c>
       <c r="H11" t="n">
-        <v>1.525747965050362</v>
+        <v>1.323783587285206</v>
       </c>
       <c r="I11" t="n">
-        <v>2.377681521525435</v>
+        <v>0.03356280232043255</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3567466307621834</v>
+        <v>0.2062703564685566</v>
       </c>
       <c r="K11" t="n">
-        <v>1.367214076143809</v>
+        <v>0.1199165793944946</v>
       </c>
       <c r="L11" t="n">
-        <v>1.020711492166271</v>
+        <v>1.410762347940911</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6683896505067368</v>
+        <v>0.3142671482045336</v>
       </c>
       <c r="N11" t="n">
-        <v>1.030252633283895</v>
+        <v>1.006688083999643</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6968443816861261</v>
+        <v>0.3276461513262809</v>
       </c>
       <c r="P11" t="n">
-        <v>155.6115358654493</v>
+        <v>158.6300474573226</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4649743803007</v>
+        <v>252.483485972174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_10</t>
+          <t>model_20_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9312540595103547</v>
+        <v>0.9756635622289093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.770165468152802</v>
+        <v>0.8019622936378323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6856495754758507</v>
+        <v>0.9810318123123345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8602311562175782</v>
+        <v>0.8749857847381649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7517887791585492</v>
+        <v>0.9467833217068942</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4597044206002077</v>
+        <v>0.1627378714342757</v>
       </c>
       <c r="H12" t="n">
-        <v>1.536904572752922</v>
+        <v>1.324279054323606</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4415287058597</v>
+        <v>0.1326129686846763</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3849514144429429</v>
+        <v>0.8389099754739348</v>
       </c>
       <c r="K12" t="n">
-        <v>1.413240060151322</v>
+        <v>0.4857614201341392</v>
       </c>
       <c r="L12" t="n">
-        <v>1.035823540031485</v>
+        <v>2.908078229812448</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6780150592724381</v>
+        <v>0.4034078227232036</v>
       </c>
       <c r="N12" t="n">
-        <v>1.031130237202858</v>
+        <v>1.011020273707664</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7068795640303263</v>
+        <v>0.4205817289058455</v>
       </c>
       <c r="P12" t="n">
-        <v>155.5543431198885</v>
+        <v>157.6312290466954</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.40778163474</v>
+        <v>251.4846675615468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_11</t>
+          <t>model_20_8_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.929472613630654</v>
+        <v>0.9745284194231907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7686120757805937</v>
+        <v>0.8013587098251348</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6782438204349006</v>
+        <v>0.9796272887691683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8508413565135091</v>
+        <v>0.8680878339125566</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7444665859831858</v>
+        <v>0.9437098835794113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4716169574005701</v>
+        <v>0.1703285766029679</v>
       </c>
       <c r="H13" t="n">
-        <v>1.547292114698594</v>
+        <v>1.328315222058362</v>
       </c>
       <c r="I13" t="n">
-        <v>2.499048473960589</v>
+        <v>0.1424324643430792</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4108128051477565</v>
+        <v>0.8851987894764974</v>
       </c>
       <c r="K13" t="n">
-        <v>1.454930426479282</v>
+        <v>0.5138157391443861</v>
       </c>
       <c r="L13" t="n">
-        <v>1.049081475447775</v>
+        <v>2.986979883595827</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6867437348826491</v>
+        <v>0.4127088278713795</v>
       </c>
       <c r="N13" t="n">
-        <v>1.031936929676685</v>
+        <v>1.011534300638555</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7159798374321134</v>
+        <v>0.4302786970989141</v>
       </c>
       <c r="P13" t="n">
-        <v>155.5031763075941</v>
+        <v>157.5400518076929</v>
       </c>
       <c r="Q13" t="n">
-        <v>249.3566148224456</v>
+        <v>251.3934903225444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_12</t>
+          <t>model_20_8_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9278398977044661</v>
+        <v>0.9734506927896571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7671735369643158</v>
+        <v>0.8007601137195813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6715726912083821</v>
+        <v>0.9782921704030574</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8422588776588265</v>
+        <v>0.8617208149400765</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7378406489684433</v>
+        <v>0.9408582146385032</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4825349363169545</v>
+        <v>0.1775353395638818</v>
       </c>
       <c r="H14" t="n">
-        <v>1.556911630386906</v>
+        <v>1.332318036972479</v>
       </c>
       <c r="I14" t="n">
-        <v>2.550862475903485</v>
+        <v>0.151766725105931</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4344506723943358</v>
+        <v>0.9279247764281273</v>
       </c>
       <c r="K14" t="n">
-        <v>1.49265651957664</v>
+        <v>0.5398457507670291</v>
       </c>
       <c r="L14" t="n">
-        <v>1.060737687351232</v>
+        <v>3.057940616572061</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6946473467285069</v>
+        <v>0.421349426917709</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0326762727376</v>
+        <v>1.012022327793363</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7242199223969813</v>
+        <v>0.4392871443351517</v>
       </c>
       <c r="P14" t="n">
-        <v>155.4574039078997</v>
+        <v>157.4571711874983</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.3108424227511</v>
+        <v>251.3106097023497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_13</t>
+          <t>model_20_8_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9263469399517212</v>
+        <v>0.9724351116475689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7658468698579783</v>
+        <v>0.8001760983816599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6655631597867122</v>
+        <v>0.977031587294387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8344336700294868</v>
+        <v>0.8558620507768112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7318491368705957</v>
+        <v>0.9382219013233786</v>
       </c>
       <c r="G15" t="n">
-        <v>0.492518351683998</v>
+        <v>0.1843265353373467</v>
       </c>
       <c r="H15" t="n">
-        <v>1.565783059435725</v>
+        <v>1.336223350226303</v>
       </c>
       <c r="I15" t="n">
-        <v>2.597537913027464</v>
+        <v>0.1605798848588394</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4560028628804594</v>
+        <v>0.9672401110100247</v>
       </c>
       <c r="K15" t="n">
-        <v>1.526770387953962</v>
+        <v>0.563909997934432</v>
       </c>
       <c r="L15" t="n">
-        <v>1.071010939115006</v>
+        <v>3.121767732425663</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7017965172925824</v>
+        <v>0.4293326627888294</v>
       </c>
       <c r="N15" t="n">
-        <v>1.033352329078466</v>
+        <v>1.012482213593554</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7316734479527929</v>
+        <v>0.4476102430848821</v>
       </c>
       <c r="P15" t="n">
-        <v>155.4164471135234</v>
+        <v>157.3820928912577</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.2698856283748</v>
+        <v>251.2355314061091</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9847037859080973</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8000186230054728</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9959074892379571</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9785668285798501</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9905543426953932</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1022858540651431</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.337276388791974</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02861211679602958</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1438276541011552</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0862198854485924</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.151001033246004</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3198215972462509</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.006926587513314</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3334370647629988</v>
+      </c>
+      <c r="P16" t="n">
+        <v>158.5599677890382</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>252.4134063038896</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_17</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9714837674844883</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7996135303358449</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9758481171578779</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8504840622243985</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9357918291617611</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1906881781364044</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.339985245339056</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1688539219327229</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.003329192840873</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5860916774777167</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.17920057349833</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4366785753118699</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.01291301095042</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4552688863121637</v>
+      </c>
+      <c r="P17" t="n">
+        <v>157.3142315204814</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>251.1676700353328</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_18</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9705973082378385</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7990770094407892</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9747425081732748</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8455594538986146</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9335582605558238</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1966159352005202</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.343572963034745</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1765836055517866</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.036375859103181</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6064796741131188</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.230873300941909</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4434139546749969</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.013314426458337</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4622910047189364</v>
+      </c>
+      <c r="P18" t="n">
+        <v>157.2530060412691</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>251.1064445561205</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_19</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.969774914105107</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7985695638577642</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9737141665139138</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8410589705515592</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9315101493962442</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.202115288552873</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.346966253985005</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1837730873576137</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.06657642762566</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6251748166394953</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.277367222958505</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4495723396216375</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.013686831348631</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4687115648623698</v>
+      </c>
+      <c r="P19" t="n">
+        <v>157.1978340179564</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>251.0512725328078</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_20</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9690147300996155</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7980928081626796</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9727612672535624</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8369527694612185</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9296358789770929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2071986424979203</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.350154321513295</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1904351260222147</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.094131158491858</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.6422831422570361</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.319210505686677</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4551907759367717</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.014031065615268</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4745691896432058</v>
+      </c>
+      <c r="P20" t="n">
+        <v>157.1481546405385</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>251.0015931553899</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_21</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9683144021688489</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7976474311043921</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9718812002065602</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8332127518720027</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.927924095368324</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2118817385956704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.353132559952835</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1965879702299089</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.119228608869559</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6579082895497339</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.356862921561919</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4603061357354151</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.014348195244295</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.479902320898732</v>
+      </c>
+      <c r="P21" t="n">
+        <v>157.1034539935437</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>250.9568925083951</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_22</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9676709335761826</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7972334119207788</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9710707200366105</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8298104799123766</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9263631164531246</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2161846160377298</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.355901108140041</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2022543092163683</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.142059611569753</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6721568927878084</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.390743822851092</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4649565743569283</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.014639577248521</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4847507383200981</v>
+      </c>
+      <c r="P22" t="n">
+        <v>157.0632450649419</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>250.9166835797934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9833761852575684</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.797090178597919</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9962757315024539</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9864344444377021</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9935873323706668</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1111635257282681</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.356858910029533</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02603761148776332</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.09103188673561875</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.05853477959139496</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.858345870692754</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3334119459891444</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.007527765166384</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3476059827877775</v>
+      </c>
+      <c r="P23" t="n">
+        <v>158.3935059140243</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>252.2469444288757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9670810668027493</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.796849902687175</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9703264179874361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8267185402241817</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9249415380154696</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.220129057867765</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.358465636151047</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2074579747412136</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.162808124389337</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6851330495652752</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.421242003363807</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4691791319610933</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.014906686730831</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.4891530589433717</v>
+      </c>
+      <c r="P24" t="n">
+        <v>157.0270825559126</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>250.880521070764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9665415228193567</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7964960707161219</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9696441570569578</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8239121550765551</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9236486901888404</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2237369909690833</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.360831712170725</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2122278899749782</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.181640418704307</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6969341543396425</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.44868738054552</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4730084470377705</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.015151008534631</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4931453958906379</v>
+      </c>
+      <c r="P25" t="n">
+        <v>156.9945681288754</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>250.8480066437269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_20_8_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9809703878072296</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7929778917974778</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9962248910936256</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9920097038294798</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9956172141447556</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1272511043563631</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.384357790799423</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.026393053855526</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.05361901564874992</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04000603475213795</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5279022153116533</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3567227275579214</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.008617182879745</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.3719091525879075</v>
+      </c>
+      <c r="P26" t="n">
+        <v>158.1231858899074</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>251.9766244047588</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_7</t>
+          <t>model_20_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9828917816057461</v>
+        <v>0.9959356180888529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8045784247429575</v>
+        <v>0.8245493122413903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9902290506274354</v>
+        <v>0.9979345738817988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9277337965892845</v>
+        <v>0.9986584924705286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9696945646421403</v>
+        <v>0.9982195978959644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1144027351784778</v>
+        <v>0.02717854055459874</v>
       </c>
       <c r="H2" t="n">
-        <v>1.306784973577457</v>
+        <v>1.173239556917956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06831198765531336</v>
+        <v>0.02177660692979198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4849435626492758</v>
+        <v>0.004836622703357808</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2766277751522945</v>
+        <v>0.0133066148165749</v>
       </c>
       <c r="L2" t="n">
-        <v>2.208062730002257</v>
+        <v>0.09269422392584982</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3382347338439354</v>
+        <v>0.1648591536876213</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007747117763436</v>
+        <v>1.001840474827689</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3526340867060942</v>
+        <v>0.1718775491655979</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3360605828389</v>
+        <v>161.2106551345275</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.1894990976904</v>
+        <v>255.0640936493789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_6</t>
+          <t>model_20_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9838887417510056</v>
+        <v>0.9962848252212505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8045110535716772</v>
+        <v>0.8236386160765125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9916858082700892</v>
+        <v>0.9976843897311092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9381022826548362</v>
+        <v>0.9959288247344689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.974063684341004</v>
+        <v>0.9973847508488007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1077360580965486</v>
+        <v>0.02484339085230467</v>
       </c>
       <c r="H3" t="n">
-        <v>1.307235484910025</v>
+        <v>1.179329386365864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05812730586981825</v>
+        <v>0.02441439767990445</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4153656640660149</v>
+        <v>0.01467806798399052</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2367464849679166</v>
+        <v>0.0195462098283877</v>
       </c>
       <c r="L3" t="n">
-        <v>2.040323299030695</v>
+        <v>0.1032110662216455</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3282317140322497</v>
+        <v>0.1576178633667665</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007295664112752</v>
+        <v>1.001682343296038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3422052176319194</v>
+        <v>0.1643279821242469</v>
       </c>
       <c r="P3" t="n">
-        <v>158.4561418991707</v>
+        <v>161.3903270469829</v>
       </c>
       <c r="Q3" t="n">
-        <v>252.3095804140222</v>
+        <v>255.2437655618344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_8</t>
+          <t>model_20_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9817620302753407</v>
+        <v>0.9963853067553755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8044179107153842</v>
+        <v>0.8226301693647105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9887018572988232</v>
+        <v>0.9974049749626432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9176967803108865</v>
+        <v>0.9918175941718815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9654203217834643</v>
+        <v>0.9961960526281239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1219573875269254</v>
+        <v>0.02417147037093562</v>
       </c>
       <c r="H4" t="n">
-        <v>1.30785833161894</v>
+        <v>1.186072874171154</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07898910897009209</v>
+        <v>0.02736037842917595</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5522971277003121</v>
+        <v>0.02950054988655846</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3156430302870308</v>
+        <v>0.02843046654760918</v>
       </c>
       <c r="L4" t="n">
-        <v>2.358341304579908</v>
+        <v>0.1129862810029184</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3492239790262481</v>
+        <v>0.1554717671184566</v>
       </c>
       <c r="N4" t="n">
-        <v>1.008258703271544</v>
+        <v>1.001636842223981</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3640911668066914</v>
+        <v>0.1620905221156148</v>
       </c>
       <c r="P4" t="n">
-        <v>158.2081671556569</v>
+        <v>161.4451645031456</v>
       </c>
       <c r="Q4" t="n">
-        <v>252.0616056705083</v>
+        <v>255.298603017997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_5</t>
+          <t>model_20_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.984679417089747</v>
+        <v>0.996299770855619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8041365153465163</v>
+        <v>0.8215658131742881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9930317706422445</v>
+        <v>0.997108197742251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9486458140266186</v>
+        <v>0.9867505119018071</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9784547091199746</v>
+        <v>0.9947645642716322</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1024488084656589</v>
+        <v>0.0247434493264637</v>
       </c>
       <c r="H5" t="n">
-        <v>1.309740023746266</v>
+        <v>1.193190228917418</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04871723101983994</v>
+        <v>0.0304894183968826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3446131210373268</v>
+        <v>0.0477692249471304</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1966652453849251</v>
+        <v>0.0391293216720065</v>
       </c>
       <c r="L5" t="n">
-        <v>1.852890702120747</v>
+        <v>0.1224341856122137</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3200762541421324</v>
+        <v>0.1573005064405824</v>
       </c>
       <c r="N5" t="n">
-        <v>1.006937622449926</v>
+        <v>1.001675575461606</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3337025629301504</v>
+        <v>0.1639971146566958</v>
       </c>
       <c r="P5" t="n">
-        <v>158.556784069527</v>
+        <v>161.3983889973559</v>
       </c>
       <c r="Q5" t="n">
-        <v>252.4102225843785</v>
+        <v>255.2518275122073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_9</t>
+          <t>model_20_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9805553798434966</v>
+        <v>0.9960783138151186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8040917138563434</v>
+        <v>0.8204781133688487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9871387832141734</v>
+        <v>0.9968033143412857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9080950207444256</v>
+        <v>0.9810649699547015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9612923099239377</v>
+        <v>0.9931781873311621</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1300262645207816</v>
+        <v>0.02622433357600641</v>
       </c>
       <c r="H6" t="n">
-        <v>1.310039611517344</v>
+        <v>1.200463682524789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08991708469727711</v>
+        <v>0.03370392504213817</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6167298953302618</v>
+        <v>0.06826767214786979</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3533234900137694</v>
+        <v>0.05098580445917165</v>
       </c>
       <c r="L6" t="n">
-        <v>2.493118993578721</v>
+        <v>0.1313627786380657</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3605915480440183</v>
+        <v>0.161939289784803</v>
       </c>
       <c r="N6" t="n">
-        <v>1.008805111014266</v>
+        <v>1.001775857895041</v>
       </c>
       <c r="O6" t="n">
-        <v>0.37594267677166</v>
+        <v>0.1688333806114852</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0800376283152</v>
+        <v>161.2821350736101</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.9334761431666</v>
+        <v>255.1355735884616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_10</t>
+          <t>model_20_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9793144477808261</v>
+        <v>0.9957607170889086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8036488330943438</v>
+        <v>0.819391994425394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9855687017775266</v>
+        <v>0.9964974580810163</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8989956553635507</v>
+        <v>0.9750254715322185</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9573462937245281</v>
+        <v>0.9915057454701494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.138324382937826</v>
+        <v>0.02834810434657157</v>
       </c>
       <c r="H7" t="n">
-        <v>1.313001157212113</v>
+        <v>1.207726564900788</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1008940511749874</v>
+        <v>0.03692868892897334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.677791338403036</v>
+        <v>0.09004226121676931</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3893426947890117</v>
+        <v>0.06348553112045222</v>
       </c>
       <c r="L7" t="n">
-        <v>2.61407914864824</v>
+        <v>0.1395850310545078</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3719198609079999</v>
+        <v>0.1683689530363943</v>
       </c>
       <c r="N7" t="n">
-        <v>1.009367042514343</v>
+        <v>1.001919675280494</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3877532593671018</v>
+        <v>0.1755367679389345</v>
       </c>
       <c r="P7" t="n">
-        <v>157.9563075023341</v>
+        <v>161.1263902342523</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.8097460171855</v>
+        <v>254.9798287491037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_4</t>
+          <t>model_20_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9851682457989399</v>
+        <v>0.995378200464656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8033543626485523</v>
+        <v>0.8183261948579565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9942206386598857</v>
+        <v>0.9961960494617229</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9591388800632543</v>
+        <v>0.9688352574536895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9827670380365259</v>
+        <v>0.9898001003288391</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09918000863643739</v>
+        <v>0.03090599477427521</v>
       </c>
       <c r="H8" t="n">
-        <v>1.314970282439033</v>
+        <v>1.214853571515798</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0404054555466249</v>
+        <v>0.04010655957259639</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2741992264813869</v>
+        <v>0.1123602350582248</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1573023410140059</v>
+        <v>0.07623341703775857</v>
       </c>
       <c r="L8" t="n">
-        <v>1.643155045905498</v>
+        <v>0.1471355316817554</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3149285770399971</v>
+        <v>0.1758010090251908</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00671626605331</v>
+        <v>1.002092890355627</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3283357385566166</v>
+        <v>0.1832852219376508</v>
       </c>
       <c r="P8" t="n">
-        <v>158.6216376216855</v>
+        <v>160.9536102165102</v>
       </c>
       <c r="Q8" t="n">
-        <v>252.4750761365369</v>
+        <v>254.8070487313617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_11</t>
+          <t>model_20_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9780709034347695</v>
+        <v>0.9949550733381946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8031275433300887</v>
+        <v>0.8172943665773846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9840153952065338</v>
+        <v>0.9959031248783903</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8904355201560572</v>
+        <v>0.9626483528677929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9536049225009391</v>
+        <v>0.9881012421233435</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1466399697059011</v>
+        <v>0.0337354478172441</v>
       </c>
       <c r="H9" t="n">
-        <v>1.316487024266005</v>
+        <v>1.221753411979115</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1117537389347581</v>
+        <v>0.0431949796594225</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7352342684084874</v>
+        <v>0.1346662769746993</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4234939018374791</v>
+        <v>0.08893057781804956</v>
       </c>
       <c r="L9" t="n">
-        <v>2.722714753057082</v>
+        <v>0.1540571474444103</v>
       </c>
       <c r="M9" t="n">
-        <v>0.382935986433635</v>
+        <v>0.1836721204136439</v>
       </c>
       <c r="N9" t="n">
-        <v>1.009930156935199</v>
+        <v>1.002284495092138</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3992383641628867</v>
+        <v>0.1914914228333572</v>
       </c>
       <c r="P9" t="n">
-        <v>157.8395497640779</v>
+        <v>160.7784122608639</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.6929882789293</v>
+        <v>254.6318507757154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_12</t>
+          <t>model_20_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9768483212379158</v>
+        <v>0.9945100345571845</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8025577454873829</v>
+        <v>0.8163061237036446</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9824982669343684</v>
+        <v>0.9956215276923207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8824317675170442</v>
+        <v>0.9565789456204045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9500818923477458</v>
+        <v>0.9864387010609524</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1548153824857355</v>
+        <v>0.03671142419507373</v>
       </c>
       <c r="H10" t="n">
-        <v>1.320297265063857</v>
+        <v>1.228361796626254</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1223604920605795</v>
+        <v>0.04616397050326511</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7889435839133747</v>
+        <v>0.1565486982386414</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4556520933158134</v>
+        <v>0.1013563065249702</v>
       </c>
       <c r="L10" t="n">
-        <v>2.820332139558368</v>
+        <v>0.1603895058974008</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3934658593648697</v>
+        <v>0.1916022551930789</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010483779062076</v>
+        <v>1.002486022087313</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4102165155846459</v>
+        <v>0.1997591598679948</v>
       </c>
       <c r="P10" t="n">
-        <v>157.731043905401</v>
+        <v>160.6093345727834</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.5844824202524</v>
+        <v>254.4627730876349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_3</t>
+          <t>model_20_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9852304811674548</v>
+        <v>0.9940571701272825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8020363876556622</v>
+        <v>0.8153678934029762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9951993719765694</v>
+        <v>0.995353282563792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9692616281846838</v>
+        <v>0.9507080801729432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9868627647994682</v>
+        <v>0.9848334595034199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09876384044061026</v>
+        <v>0.03973973072307749</v>
       </c>
       <c r="H11" t="n">
-        <v>1.323783587285206</v>
+        <v>1.234635746966978</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03356280232043255</v>
+        <v>0.04899218530762191</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2062703564685566</v>
+        <v>0.1777153040815015</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1199165793944946</v>
+        <v>0.1133537822891395</v>
       </c>
       <c r="L11" t="n">
-        <v>1.410762347940911</v>
+        <v>0.166169816796982</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3142671482045336</v>
+        <v>0.1993482649111286</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006688083999643</v>
+        <v>1.002691092772551</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3276461513262809</v>
+        <v>0.2078349332561925</v>
       </c>
       <c r="P11" t="n">
-        <v>158.6300474573226</v>
+        <v>160.4508076356965</v>
       </c>
       <c r="Q11" t="n">
-        <v>252.483485972174</v>
+        <v>254.304246150548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_13</t>
+          <t>model_20_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9756635622289093</v>
+        <v>0.9936071040611781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8019622936378323</v>
+        <v>0.8144835723486128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9810318123123345</v>
+        <v>0.9950996627393019</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8749857847381649</v>
+        <v>0.9450930300822288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9467833217068942</v>
+        <v>0.9833002491758154</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1627378714342757</v>
+        <v>0.04274932457948059</v>
       </c>
       <c r="H12" t="n">
-        <v>1.324279054323606</v>
+        <v>1.24054920592943</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1326129686846763</v>
+        <v>0.05166619972956173</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8389099754739348</v>
+        <v>0.1979596024940057</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4857614201341392</v>
+        <v>0.1248129011117837</v>
       </c>
       <c r="L12" t="n">
-        <v>2.908078229812448</v>
+        <v>0.1714400264436357</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4034078227232036</v>
+        <v>0.2067590979364163</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011020273707664</v>
+        <v>1.002894896274183</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4205817289058455</v>
+        <v>0.2155612607859059</v>
       </c>
       <c r="P12" t="n">
-        <v>157.6312290466954</v>
+        <v>160.3048037660691</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.4846675615468</v>
+        <v>254.1582422809206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_14</t>
+          <t>model_20_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9745284194231907</v>
+        <v>0.9931675084273839</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8013587098251348</v>
+        <v>0.8136550352422738</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9796272887691683</v>
+        <v>0.9948613963830842</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8680878339125566</v>
+        <v>0.9397703996493016</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9437098835794113</v>
+        <v>0.9818483876793718</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1703285766029679</v>
+        <v>0.0456889026068148</v>
       </c>
       <c r="H13" t="n">
-        <v>1.328315222058362</v>
+        <v>1.246089637374581</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1424324643430792</v>
+        <v>0.05417833644470468</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8851987894764974</v>
+        <v>0.2171496216537354</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5138157391443861</v>
+        <v>0.1356640238196258</v>
       </c>
       <c r="L13" t="n">
-        <v>2.986979883595827</v>
+        <v>0.1762448538363284</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4127088278713795</v>
+        <v>0.2137496259805261</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011534300638555</v>
+        <v>1.003093958447977</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4302786970989141</v>
+        <v>0.2228493900812414</v>
       </c>
       <c r="P13" t="n">
-        <v>157.5400518076929</v>
+        <v>160.171799683862</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.3934903225444</v>
+        <v>254.0252381987135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_15</t>
+          <t>model_20_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9734506927896571</v>
+        <v>0.9927438138555555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8007601137195813</v>
+        <v>0.8128827360899241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9782921704030574</v>
+        <v>0.9946387020953454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8617208149400765</v>
+        <v>0.9347615674060989</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9408582146385032</v>
+        <v>0.9804832064800059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1775353395638818</v>
+        <v>0.04852215015956482</v>
       </c>
       <c r="H14" t="n">
-        <v>1.332318036972479</v>
+        <v>1.251254005362454</v>
       </c>
       <c r="I14" t="n">
-        <v>0.151766725105931</v>
+        <v>0.05652629066435088</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9279247764281273</v>
+        <v>0.2352082841752424</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5398457507670291</v>
+        <v>0.1458673033673279</v>
       </c>
       <c r="L14" t="n">
-        <v>3.057940616572061</v>
+        <v>0.1806101891682765</v>
       </c>
       <c r="M14" t="n">
-        <v>0.421349426917709</v>
+        <v>0.2202774390616634</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012022327793363</v>
+        <v>1.003285820140881</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4392871443351517</v>
+        <v>0.2296551056796786</v>
       </c>
       <c r="P14" t="n">
-        <v>157.4571711874983</v>
+        <v>160.0514697619509</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.3106097023497</v>
+        <v>253.9049082768023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_16</t>
+          <t>model_20_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9724351116475689</v>
+        <v>0.9923397259375626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8001760983816599</v>
+        <v>0.8121659003650556</v>
       </c>
       <c r="D15" t="n">
-        <v>0.977031587294387</v>
+        <v>0.9944314826814198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8558620507768112</v>
+        <v>0.9300766106140508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9382219013233786</v>
+        <v>0.9792070616883966</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1843265353373467</v>
+        <v>0.05122428792783761</v>
       </c>
       <c r="H15" t="n">
-        <v>1.336223350226303</v>
+        <v>1.256047489155375</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1605798848588394</v>
+        <v>0.05871108715041971</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9672401110100247</v>
+        <v>0.2520992578648191</v>
       </c>
       <c r="K15" t="n">
-        <v>0.563909997934432</v>
+        <v>0.1554051303299183</v>
       </c>
       <c r="L15" t="n">
-        <v>3.121767732425663</v>
+        <v>0.1845785616498188</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4293326627888294</v>
+        <v>0.2263278328616204</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012482213593554</v>
+        <v>1.003468803349028</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4476102430848821</v>
+        <v>0.2359630772697417</v>
       </c>
       <c r="P15" t="n">
-        <v>157.3820928912577</v>
+        <v>159.9430829716514</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.2355314061091</v>
+        <v>253.7965214865028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_2</t>
+          <t>model_20_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9847037859080973</v>
+        <v>0.9919575729747949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8000186230054728</v>
+        <v>0.8115030922827222</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9959074892379571</v>
+        <v>0.9942394483305634</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9785668285798501</v>
+        <v>0.9257165822115313</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9905543426953932</v>
+        <v>0.9780199855115072</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1022858540651431</v>
+        <v>0.05377974654951759</v>
       </c>
       <c r="H16" t="n">
-        <v>1.337276388791974</v>
+        <v>1.260479689853889</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02861211679602958</v>
+        <v>0.06073578149255322</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1438276541011552</v>
+        <v>0.2678187464965525</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0862198854485924</v>
+        <v>0.1642772639945529</v>
       </c>
       <c r="L16" t="n">
-        <v>1.151001033246004</v>
+        <v>0.1881797002871763</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3198215972462509</v>
+        <v>0.2319046065724387</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006926587513314</v>
+        <v>1.003641853747263</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3334370647629988</v>
+        <v>0.2417772657829425</v>
       </c>
       <c r="P16" t="n">
-        <v>158.5599677890382</v>
+        <v>159.8457166817599</v>
       </c>
       <c r="Q16" t="n">
-        <v>252.4134063038896</v>
+        <v>253.6991551966114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_17</t>
+          <t>model_20_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9714837674844883</v>
+        <v>0.9915986864936958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7996135303358449</v>
+        <v>0.8108921467622335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9758481171578779</v>
+        <v>0.9940621035107091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8504840622243985</v>
+        <v>0.9216765205697041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9357918291617611</v>
+        <v>0.9769204630785409</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1906881781364044</v>
+        <v>0.05617962210114844</v>
       </c>
       <c r="H17" t="n">
-        <v>1.339985245339056</v>
+        <v>1.264565085362542</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1688539219327229</v>
+        <v>0.06260559828191672</v>
       </c>
       <c r="J17" t="n">
-        <v>1.003329192840873</v>
+        <v>0.2823846385475095</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5860916774777167</v>
+        <v>0.1724950264115382</v>
       </c>
       <c r="L17" t="n">
-        <v>3.17920057349833</v>
+        <v>0.1914427656043067</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4366785753118699</v>
+        <v>0.2370224084367308</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01291301095042</v>
+        <v>1.003804368380213</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4552688863121637</v>
+        <v>0.2471129430679079</v>
       </c>
       <c r="P17" t="n">
-        <v>157.3142315204814</v>
+        <v>159.7584023678026</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.1676700353328</v>
+        <v>253.6118408826541</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_18</t>
+          <t>model_20_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9705973082378385</v>
+        <v>0.9912635423104027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7990770094407892</v>
+        <v>0.8103305480797527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9747425081732748</v>
+        <v>0.9938988326611625</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8455594538986146</v>
+        <v>0.9179461455035586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9335582605558238</v>
+        <v>0.9759055281690696</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1966159352005202</v>
+        <v>0.058420732798026</v>
       </c>
       <c r="H18" t="n">
-        <v>1.343572963034745</v>
+        <v>1.268320498338215</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1765836055517866</v>
+        <v>0.06432702761910608</v>
       </c>
       <c r="J18" t="n">
-        <v>1.036375859103181</v>
+        <v>0.2958339978247313</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6064796741131188</v>
+        <v>0.1800805869282423</v>
       </c>
       <c r="L18" t="n">
-        <v>3.230873300941909</v>
+        <v>0.1943974917523004</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4434139546749969</v>
+        <v>0.2417038121296931</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013314426458337</v>
+        <v>1.003956131783969</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4622910047189364</v>
+        <v>0.2519936438079212</v>
       </c>
       <c r="P18" t="n">
-        <v>157.2530060412691</v>
+        <v>159.6801688769711</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.1064445561205</v>
+        <v>253.5336073918226</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_19</t>
+          <t>model_20_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.969774914105107</v>
+        <v>0.9909520286049744</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7985695638577642</v>
+        <v>0.8098155609300339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9737141665139138</v>
+        <v>0.993748788574924</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8410589705515592</v>
+        <v>0.9145122312104451</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9315101493962442</v>
+        <v>0.9749714599191188</v>
       </c>
       <c r="G19" t="n">
-        <v>0.202115288552873</v>
+        <v>0.06050382638061343</v>
       </c>
       <c r="H19" t="n">
-        <v>1.346966253985005</v>
+        <v>1.271764219779683</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1837730873576137</v>
+        <v>0.06590900194361074</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06657642762566</v>
+        <v>0.308214508158506</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6251748166394953</v>
+        <v>0.1870617550510584</v>
       </c>
       <c r="L19" t="n">
-        <v>3.277367222958505</v>
+        <v>0.1970732601255009</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4495723396216375</v>
+        <v>0.2459752556266858</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013686831348631</v>
+        <v>1.004097194593974</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4687115648623698</v>
+        <v>0.2564469314976879</v>
       </c>
       <c r="P19" t="n">
-        <v>157.1978340179564</v>
+        <v>159.6100973399695</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.0512725328078</v>
+        <v>253.4635358548209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_20</t>
+          <t>model_20_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9690147300996155</v>
+        <v>0.9906637275707447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7980928081626796</v>
+        <v>0.8093443124062156</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9727612672535624</v>
+        <v>0.9936113137088973</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8369527694612185</v>
+        <v>0.9113602823209276</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9296358789770929</v>
+        <v>0.9741142665392413</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2071986424979203</v>
+        <v>0.06243169672401181</v>
       </c>
       <c r="H20" t="n">
-        <v>1.350154321513295</v>
+        <v>1.274915460828355</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1904351260222147</v>
+        <v>0.06735845399314558</v>
       </c>
       <c r="J20" t="n">
-        <v>1.094131158491858</v>
+        <v>0.3195784306292733</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6422831422570361</v>
+        <v>0.1934683651665453</v>
       </c>
       <c r="L20" t="n">
-        <v>3.319210505686677</v>
+        <v>0.1994944201651475</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4551907759367717</v>
+        <v>0.2498633561049155</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014031065615268</v>
+        <v>1.004227746005701</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4745691896432058</v>
+        <v>0.2605005564627533</v>
       </c>
       <c r="P20" t="n">
-        <v>157.1481546405385</v>
+        <v>159.5473643445085</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.0015931553899</v>
+        <v>253.4008028593599</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_21</t>
+          <t>model_20_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9683144021688489</v>
+        <v>0.9903977849780307</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7976474311043921</v>
+        <v>0.8089139209174752</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9718812002065602</v>
+        <v>0.9934855675269223</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8332127518720027</v>
+        <v>0.9084734505707572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.927924095368324</v>
+        <v>0.9733292703960108</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2118817385956704</v>
+        <v>0.06421005606604369</v>
       </c>
       <c r="H21" t="n">
-        <v>1.353132559952835</v>
+        <v>1.277793490695334</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1965879702299089</v>
+        <v>0.06868424587389176</v>
       </c>
       <c r="J21" t="n">
-        <v>1.119228608869559</v>
+        <v>0.3299865093592898</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6579082895497339</v>
+        <v>0.1993353776165908</v>
       </c>
       <c r="L21" t="n">
-        <v>3.356862921561919</v>
+        <v>0.2016857084290153</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4603061357354151</v>
+        <v>0.2533970324728442</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014348195244295</v>
+        <v>1.004348172840137</v>
       </c>
       <c r="O21" t="n">
-        <v>0.479902320898732</v>
+        <v>0.2641846687493833</v>
       </c>
       <c r="P21" t="n">
-        <v>157.1034539935437</v>
+        <v>159.4911908880194</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.9568925083951</v>
+        <v>253.3446294028709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_22</t>
+          <t>model_20_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9676709335761826</v>
+        <v>0.9901531902501872</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7972334119207788</v>
+        <v>0.8085214201247769</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9710707200366105</v>
+        <v>0.9933707773015894</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8298104799123766</v>
+        <v>0.9058346266182964</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9263631164531246</v>
+        <v>0.9726118307160152</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2161846160377298</v>
+        <v>0.06584566213738802</v>
       </c>
       <c r="H22" t="n">
-        <v>1.355901108140041</v>
+        <v>1.280418145303407</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2022543092163683</v>
+        <v>0.06989452475747374</v>
       </c>
       <c r="J22" t="n">
-        <v>1.142059611569753</v>
+        <v>0.3395004297497815</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6721568927878084</v>
+        <v>0.2046974772536276</v>
       </c>
       <c r="L22" t="n">
-        <v>3.390743822851092</v>
+        <v>0.2036643969571041</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4649565743569283</v>
+        <v>0.2566040961040724</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014639577248521</v>
+        <v>1.004458932716896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4847507383200981</v>
+        <v>0.2675282637189298</v>
       </c>
       <c r="P22" t="n">
-        <v>157.0632450649419</v>
+        <v>159.440883455739</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.9166835797934</v>
+        <v>253.2943219705904</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_1</t>
+          <t>model_20_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9833761852575684</v>
+        <v>0.9899287896869888</v>
       </c>
       <c r="C23" t="n">
-        <v>0.797090178597919</v>
+        <v>0.8081640152391156</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9962757315024539</v>
+        <v>0.9932661256920728</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9864344444377021</v>
+        <v>0.9034266455831909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9935873323706668</v>
+        <v>0.9719572260037239</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1111635257282681</v>
+        <v>0.06734622973676484</v>
       </c>
       <c r="H23" t="n">
-        <v>1.356858910029533</v>
+        <v>1.282808113419522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02603761148776332</v>
+        <v>0.07099790819245971</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09103188673561875</v>
+        <v>0.348182077439255</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05853477959139496</v>
+        <v>0.2095899522421881</v>
       </c>
       <c r="L23" t="n">
-        <v>0.858345870692754</v>
+        <v>0.2054546889416419</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3334119459891444</v>
+        <v>0.2595115213950333</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007527765166384</v>
+        <v>1.004560548066269</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3476059827877775</v>
+        <v>0.270559464123727</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3935059140243</v>
+        <v>159.3958167156894</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.2469444288757</v>
+        <v>253.2492552305408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_23</t>
+          <t>model_20_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9670810668027493</v>
+        <v>0.9897234313585512</v>
       </c>
       <c r="C24" t="n">
-        <v>0.796849902687175</v>
+        <v>0.8078389894405575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9703264179874361</v>
+        <v>0.9931708369089243</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8267185402241817</v>
+        <v>0.9012334541941447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9249415380154696</v>
+        <v>0.9713610207940596</v>
       </c>
       <c r="G24" t="n">
-        <v>0.220129057867765</v>
+        <v>0.06871946182461584</v>
       </c>
       <c r="H24" t="n">
-        <v>1.358465636151047</v>
+        <v>1.284981562431086</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2074579747412136</v>
+        <v>0.07200257563476657</v>
       </c>
       <c r="J24" t="n">
-        <v>1.162808124389337</v>
+        <v>0.3560893303111409</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6851330495652752</v>
+        <v>0.2140459529729537</v>
       </c>
       <c r="L24" t="n">
-        <v>3.421242003363807</v>
+        <v>0.2070641064780432</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4691791319610933</v>
+        <v>0.2621439715587903</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014906686730831</v>
+        <v>1.004653540516882</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4891530589433717</v>
+        <v>0.2733039831408781</v>
       </c>
       <c r="P24" t="n">
-        <v>157.0270825559126</v>
+        <v>159.3554456655195</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.880521070764</v>
+        <v>253.2088841803709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_24</t>
+          <t>model_20_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9665415228193567</v>
+        <v>0.9895357765108085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7964960707161219</v>
+        <v>0.8075436767859008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9696441570569578</v>
+        <v>0.9930841954001534</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8239121550765551</v>
+        <v>0.8992375086491631</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9236486901888404</v>
+        <v>0.9708184981597946</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2237369909690833</v>
+        <v>0.06997431065554255</v>
       </c>
       <c r="H25" t="n">
-        <v>1.360831712170725</v>
+        <v>1.286956319512565</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2122278899749782</v>
+        <v>0.07291607143288752</v>
       </c>
       <c r="J25" t="n">
-        <v>1.181640418704307</v>
+        <v>0.3632854401543168</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969341543396425</v>
+        <v>0.2181007334672446</v>
       </c>
       <c r="L25" t="n">
-        <v>3.44868738054552</v>
+        <v>0.2085227588406352</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4730084470377705</v>
+        <v>0.2645265783537498</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015151008534631</v>
+        <v>1.004738516296992</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4931453958906379</v>
+        <v>0.2757880224397751</v>
       </c>
       <c r="P25" t="n">
-        <v>156.9945681288754</v>
+        <v>159.3192541898509</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.8480066437269</v>
+        <v>253.1726927047023</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_8_0</t>
+          <t>model_20_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9809703878072296</v>
+        <v>0.9893646578608974</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7929778917974778</v>
+        <v>0.8072757015265821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9962248910936256</v>
+        <v>0.9930055339906774</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9920097038294798</v>
+        <v>0.8974239786227063</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9956172141447556</v>
+        <v>0.9703255961113407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1272511043563631</v>
+        <v>0.07111858185542615</v>
       </c>
       <c r="H26" t="n">
-        <v>1.384357790799423</v>
+        <v>1.288748271305542</v>
       </c>
       <c r="I26" t="n">
-        <v>0.026393053855526</v>
+        <v>0.07374542987839575</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05361901564874992</v>
+        <v>0.3698238756878379</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04000603475213795</v>
+        <v>0.2217846527831168</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5279022153116533</v>
+        <v>0.2098344146687975</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3567227275579214</v>
+        <v>0.2666806739443752</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008617182879745</v>
+        <v>1.004816003987518</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3719091525879075</v>
+        <v>0.278033822339286</v>
       </c>
       <c r="P26" t="n">
-        <v>158.1231858899074</v>
+        <v>159.2868132562817</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.9766244047588</v>
+        <v>253.1402517711331</v>
       </c>
     </row>
   </sheetData>
